--- a/db/Taikhoanketoan.xlsx
+++ b/db/Taikhoanketoan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="224">
   <si>
     <t>Tiền mặt</t>
   </si>
@@ -688,9 +688,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -1102,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,15 +1110,14 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>219</v>
@@ -1130,16 +1126,13 @@
         <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1149,18 +1142,15 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="str">
+      <c r="D2" s="1" t="str">
         <f>C2</f>
         <v>Tiền mặt</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1170,18 +1160,15 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="str">
+      <c r="D3" s="1" t="str">
         <f>C3</f>
         <v>Tiền Việt Nam</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1191,18 +1178,15 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="D4" s="1" t="str">
         <f>C4</f>
         <v>Ngoại tệ</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1212,18 +1196,15 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="str">
+      <c r="D5" s="1" t="str">
         <f>C5</f>
         <v>Vàng tiền tệ</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1233,18 +1214,15 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="D6" s="1" t="str">
         <f>C6</f>
         <v>Tiền gửi Ngân hàng</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1254,18 +1232,15 @@
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="str">
+      <c r="D7" s="1" t="str">
         <f>C7</f>
         <v>Tiền Việt Nam</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1275,18 +1250,15 @@
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="str">
+      <c r="D8" s="1" t="str">
         <f>C8</f>
         <v>Ngoại tệ</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1296,18 +1268,15 @@
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="str">
+      <c r="D9" s="1" t="str">
         <f>C9</f>
         <v>a</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1317,18 +1286,15 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="str">
+      <c r="D10" s="1" t="str">
         <f>C10</f>
         <v>Tiền đang chuyển</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1338,18 +1304,15 @@
       <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="str">
+      <c r="D11" s="1" t="str">
         <f>C11</f>
         <v>Tiền Việt Nam</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1359,18 +1322,15 @@
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="str">
+      <c r="D12" s="1" t="str">
         <f>C12</f>
         <v>Ngoại tệ</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1380,18 +1340,15 @@
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="str">
+      <c r="D13" s="1" t="str">
         <f>C13</f>
         <v>Chứng khoán kinh doanh</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1401,18 +1358,15 @@
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="str">
+      <c r="D14" s="1" t="str">
         <f>C14</f>
         <v>Cổ phiếu</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1422,18 +1376,15 @@
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="str">
+      <c r="D15" s="1" t="str">
         <f>C15</f>
         <v>Trái phiếu</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1443,18 +1394,15 @@
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="str">
+      <c r="D16" s="1" t="str">
         <f>C16</f>
         <v>Chứng khoán và công cụ tài chính khác</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1464,18 +1412,15 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="str">
+      <c r="D17" s="1" t="str">
         <f>C17</f>
         <v>Đầu tư nắm giữ đến ngày đáo hạn</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1485,18 +1430,15 @@
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="str">
+      <c r="D18" s="1" t="str">
         <f>C18</f>
         <v>Tiền gửi có kỳ hạn</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1506,18 +1448,15 @@
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="str">
+      <c r="D19" s="1" t="str">
         <f>C19</f>
         <v>Trái phiếu</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1527,18 +1466,15 @@
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="str">
+      <c r="D20" s="1" t="str">
         <f>C20</f>
         <v>Cho vay</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1548,18 +1484,15 @@
       <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="str">
+      <c r="D21" s="1" t="str">
         <f>C21</f>
         <v>Các khoản đầu tư khác nắm giữ đến ngày đáo hạn</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1569,18 +1502,15 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="str">
+      <c r="D22" s="1" t="str">
         <f>C22</f>
         <v>Phải thu của khách hàng</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1590,18 +1520,15 @@
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="str">
+      <c r="D23" s="1" t="str">
         <f>C23</f>
         <v>Thuế GTGT được khấu trừ</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1611,18 +1538,15 @@
       <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="str">
+      <c r="D24" s="1" t="str">
         <f>C24</f>
         <v>Thuế GTGT được khấu trừ của hàng hóa, dịch vụ</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1632,18 +1556,15 @@
       <c r="C25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="str">
+      <c r="D25" s="1" t="str">
         <f>C25</f>
         <v>Thuế GTGT được khấu trừ của TSCĐ</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1653,18 +1574,15 @@
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="str">
+      <c r="D26" s="1" t="str">
         <f>C26</f>
         <v>Phải thu nội bộ</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1674,18 +1592,15 @@
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="str">
+      <c r="D27" s="1" t="str">
         <f>C27</f>
         <v>Vốn kinh doanh ở các đơn vị trực thuộc</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1695,18 +1610,15 @@
       <c r="C28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="str">
+      <c r="D28" s="1" t="str">
         <f>C28</f>
         <v>Phải thu nội bộ về chênh lệch tỷ giá</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1716,18 +1628,15 @@
       <c r="C29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="str">
+      <c r="D29" s="1" t="str">
         <f>C29</f>
         <v>Phải thu nội bộ về chi phí đi vay đủ điều kiện được vốn hoá</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1737,18 +1646,15 @@
       <c r="C30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="str">
+      <c r="D30" s="1" t="str">
         <f>C30</f>
         <v>Phải thu nội bộ khác</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1758,18 +1664,15 @@
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="str">
+      <c r="D31" s="1" t="str">
         <f>C31</f>
         <v>Phải thu khác</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1779,18 +1682,15 @@
       <c r="C32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="str">
+      <c r="D32" s="1" t="str">
         <f>C32</f>
         <v>Tài sản thiếu chờ xử lý</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1800,18 +1700,15 @@
       <c r="C33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="str">
+      <c r="D33" s="1" t="str">
         <f>C33</f>
         <v>Phải thu về cổ phần hoá</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1821,18 +1718,15 @@
       <c r="C34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="str">
+      <c r="D34" s="1" t="str">
         <f>C34</f>
         <v>Phải thu khác</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1842,18 +1736,15 @@
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="str">
+      <c r="D35" s="1" t="str">
         <f>C35</f>
         <v>Tạm ứng</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1863,18 +1754,15 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="str">
+      <c r="D36" s="1" t="str">
         <f>C36</f>
         <v>Hàng mua đang đi đường</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1884,18 +1772,15 @@
       <c r="C37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="str">
+      <c r="D37" s="1" t="str">
         <f>C37</f>
         <v>Nguyên liệu, vật liệu</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1905,18 +1790,15 @@
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="str">
+      <c r="D38" s="1" t="str">
         <f>C38</f>
         <v>Công cụ, dụng cụ</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1926,18 +1808,15 @@
       <c r="C39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="str">
+      <c r="D39" s="1" t="str">
         <f>C39</f>
         <v>Công cụ, dụng cụ</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1947,18 +1826,15 @@
       <c r="C40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="str">
+      <c r="D40" s="1" t="str">
         <f>C40</f>
         <v>Bao bì luân chuyển</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1968,18 +1844,15 @@
       <c r="C41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f>C41</f>
         <v>Đồ dùng cho thuê</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1989,18 +1862,15 @@
       <c r="C42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="str">
+      <c r="D42" s="1" t="str">
         <f>C42</f>
         <v>Thiết bị, phụ tùng thay thế</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2010,18 +1880,15 @@
       <c r="C43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="str">
+      <c r="D43" s="1" t="str">
         <f>C43</f>
         <v>Chi phí sản xuất, kinh doanh dở dang</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2031,18 +1898,15 @@
       <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="str">
+      <c r="D44" s="1" t="str">
         <f>C44</f>
         <v>Thành phẩm</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2052,18 +1916,15 @@
       <c r="C45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="str">
+      <c r="D45" s="1" t="str">
         <f>C45</f>
         <v>Thành phẩm nhập kho</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2073,18 +1934,15 @@
       <c r="C46" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="str">
+      <c r="D46" s="1" t="str">
         <f>C46</f>
         <v>Thành phẩm bất động sản</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2094,18 +1952,15 @@
       <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="str">
+      <c r="D47" s="1" t="str">
         <f>C47</f>
         <v>Hàng hóa</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2115,18 +1970,15 @@
       <c r="C48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="str">
+      <c r="D48" s="1" t="str">
         <f>C48</f>
         <v>Giá mua hàng hóa</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2136,18 +1988,15 @@
       <c r="C49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="str">
+      <c r="D49" s="1" t="str">
         <f>C49</f>
         <v>Chi phí thu mua hàng hóa</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2157,18 +2006,15 @@
       <c r="C50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="str">
+      <c r="D50" s="1" t="str">
         <f>C50</f>
         <v>Hàng hóa bất động sản</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2178,18 +2024,15 @@
       <c r="C51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="str">
+      <c r="D51" s="1" t="str">
         <f>C51</f>
         <v>Hàng gửi đi bán</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2199,18 +2042,15 @@
       <c r="C52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="str">
+      <c r="D52" s="1" t="str">
         <f>C52</f>
         <v>Hàng hoá kho bảo thuế</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2220,18 +2060,15 @@
       <c r="C53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="str">
+      <c r="D53" s="1" t="str">
         <f>C53</f>
         <v>Chi sự nghiệp</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2241,18 +2078,15 @@
       <c r="C54" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="str">
+      <c r="D54" s="1" t="str">
         <f>C54</f>
         <v>Chi sự nghiệp năm trước</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2262,18 +2096,15 @@
       <c r="C55" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="str">
+      <c r="D55" s="1" t="str">
         <f>C55</f>
         <v>Chi sự nghiệp năm nay</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2283,18 +2114,15 @@
       <c r="C56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="str">
+      <c r="D56" s="1" t="str">
         <f>C56</f>
         <v>Giao dịch mua bán lại trái phiếu chính phủ</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2304,18 +2132,15 @@
       <c r="C57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="str">
+      <c r="D57" s="1" t="str">
         <f>C57</f>
         <v>Tài sản cố định hữu hình</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2325,18 +2150,15 @@
       <c r="C58" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="str">
+      <c r="D58" s="1" t="str">
         <f>C58</f>
         <v>Nhà cửa, vật kiến trúc</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2346,18 +2168,15 @@
       <c r="C59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="str">
+      <c r="D59" s="1" t="str">
         <f>C59</f>
         <v>Máy móc, thiết bị</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2367,18 +2186,15 @@
       <c r="C60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="str">
+      <c r="D60" s="1" t="str">
         <f>C60</f>
         <v>Phương tiện vận tải, truyền dẫn</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2388,18 +2204,15 @@
       <c r="C61" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="str">
+      <c r="D61" s="1" t="str">
         <f>C61</f>
         <v>Thiết bị, dụng cụ quản lý</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2409,18 +2222,15 @@
       <c r="C62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="str">
+      <c r="D62" s="1" t="str">
         <f>C62</f>
         <v>Cây lâu năm, súc vật làm việc và cho sản phẩm</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2430,18 +2240,15 @@
       <c r="C63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="str">
+      <c r="D63" s="1" t="str">
         <f>C63</f>
         <v>TSCĐ khác</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2451,18 +2258,15 @@
       <c r="C64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="str">
+      <c r="D64" s="1" t="str">
         <f>C64</f>
         <v>Tài sản cố định thuê tài chính</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2472,18 +2276,15 @@
       <c r="C65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="str">
+      <c r="D65" s="1" t="str">
         <f>C65</f>
         <v>TSCĐ hữu hình thuê tài chính.</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2493,18 +2294,15 @@
       <c r="C66" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="str">
+      <c r="D66" s="1" t="str">
         <f>C66</f>
         <v>TSCĐ vô hình thuê tài chính.</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2514,18 +2312,15 @@
       <c r="C67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1" t="str">
+      <c r="D67" s="1" t="str">
         <f>C67</f>
         <v>Tài sản cố định vô hình</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2535,18 +2330,15 @@
       <c r="C68" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="str">
+      <c r="D68" s="1" t="str">
         <f>C68</f>
         <v>Quyền sử dụng đất</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2556,18 +2348,15 @@
       <c r="C69" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="str">
+      <c r="D69" s="1" t="str">
         <f>C69</f>
         <v>Quyền phát hành</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2577,18 +2366,15 @@
       <c r="C70" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1" t="str">
+      <c r="D70" s="1" t="str">
         <f>C70</f>
         <v>Bản quyền, bằng sáng chế</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2598,18 +2384,15 @@
       <c r="C71" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="str">
+      <c r="D71" s="1" t="str">
         <f>C71</f>
         <v>Nhãn hiệu, tên thương mại</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2619,18 +2402,15 @@
       <c r="C72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="str">
+      <c r="D72" s="1" t="str">
         <f>C72</f>
         <v>Chương trình phần mềm</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2640,18 +2420,15 @@
       <c r="C73" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="str">
+      <c r="D73" s="1" t="str">
         <f>C73</f>
         <v>Giấy phép và giấy phép nhượng quyền</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2661,18 +2438,15 @@
       <c r="C74" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="str">
+      <c r="D74" s="1" t="str">
         <f>C74</f>
         <v>TSCĐ vô hình khác</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2682,18 +2456,15 @@
       <c r="C75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="1">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="str">
+      <c r="D75" s="1" t="str">
         <f>C75</f>
         <v>Hao mòn tài sản cố định</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2703,18 +2474,15 @@
       <c r="C76" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="str">
+      <c r="D76" s="1" t="str">
         <f>C76</f>
         <v>Hao mòn TSCĐ hữu hình</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2724,18 +2492,15 @@
       <c r="C77" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="str">
+      <c r="D77" s="1" t="str">
         <f>C77</f>
         <v>Hao mòn TSCĐ thuê tài chính</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2745,18 +2510,15 @@
       <c r="C78" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="str">
+      <c r="D78" s="1" t="str">
         <f>C78</f>
         <v>Hao mòn TSCĐ vô hình</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2766,18 +2528,15 @@
       <c r="C79" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="1">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="str">
+      <c r="D79" s="1" t="str">
         <f>C79</f>
         <v>Hao mòn bất động sản đầu tư</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2787,18 +2546,15 @@
       <c r="C80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="str">
+      <c r="D80" s="1" t="str">
         <f>C80</f>
         <v>Bất động sản đầu tư</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2808,18 +2564,15 @@
       <c r="C81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="str">
+      <c r="D81" s="1" t="str">
         <f>C81</f>
         <v>Đầu tư vào công ty con</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2829,18 +2582,15 @@
       <c r="C82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1" t="str">
+      <c r="D82" s="1" t="str">
         <f>C82</f>
         <v>Đầu tư vào công ty liên doanh, liên kết</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2850,18 +2600,15 @@
       <c r="C83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="str">
+      <c r="D83" s="1" t="str">
         <f>C83</f>
         <v>Đầu tư khác</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2871,18 +2618,15 @@
       <c r="C84" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1" t="str">
+      <c r="D84" s="1" t="str">
         <f>C84</f>
         <v>Đầu tư góp vốn vào đơn vị khác</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2892,18 +2636,15 @@
       <c r="C85" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1" t="str">
+      <c r="D85" s="1" t="str">
         <f>C85</f>
         <v>Đầu tư khác</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2913,18 +2654,15 @@
       <c r="C86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1" t="str">
+      <c r="D86" s="1" t="str">
         <f>C86</f>
         <v>Dự phòng tổn thất tài sản</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2934,18 +2672,15 @@
       <c r="C87" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="str">
+      <c r="D87" s="1" t="str">
         <f>C87</f>
         <v>Dự phòng giảm giá chứng khoán kinh doanh</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2955,18 +2690,15 @@
       <c r="C88" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1" t="str">
+      <c r="D88" s="1" t="str">
         <f>C88</f>
         <v>Dự phòng tổn thất đầu tư vào đơn vị khác</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2976,18 +2708,15 @@
       <c r="C89" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="str">
+      <c r="D89" s="1" t="str">
         <f>C89</f>
         <v>Dự phòng phải thu khó đòi</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2997,18 +2726,15 @@
       <c r="C90" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="str">
+      <c r="D90" s="1" t="str">
         <f>C90</f>
         <v>Dự phòng giảm giá hàng tồn kho</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3018,18 +2744,15 @@
       <c r="C91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D91" s="1">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="str">
+      <c r="D91" s="1" t="str">
         <f>C91</f>
         <v>Xây dựng cơ bản dở dang</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3039,18 +2762,15 @@
       <c r="C92" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="str">
+      <c r="D92" s="1" t="str">
         <f>C92</f>
         <v>Mua sắm TSCĐ</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3060,18 +2780,15 @@
       <c r="C93" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="1">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1" t="str">
+      <c r="D93" s="1" t="str">
         <f>C93</f>
         <v>Xây dựng cơ bản</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3081,18 +2798,15 @@
       <c r="C94" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="1">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="str">
+      <c r="D94" s="1" t="str">
         <f>C94</f>
         <v>Sửa chữa lớn TSCĐ</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3102,18 +2816,15 @@
       <c r="C95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="str">
+      <c r="D95" s="1" t="str">
         <f>C95</f>
         <v>Chi phí trả trước</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3123,18 +2834,15 @@
       <c r="C96" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1" t="str">
+      <c r="D96" s="1" t="str">
         <f>C96</f>
         <v>Tài sản thuế thu nhập hoãn lại</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3144,18 +2852,15 @@
       <c r="C97" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1" t="str">
+      <c r="D97" s="1" t="str">
         <f>C97</f>
         <v>Cầm cố, thế chấp, ký quỹ, ký cược</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3165,18 +2870,15 @@
       <c r="C98" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="str">
+      <c r="D98" s="1" t="str">
         <f>C98</f>
         <v>Phải trả cho người bán</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3186,18 +2888,15 @@
       <c r="C99" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="str">
+      <c r="D99" s="1" t="str">
         <f>C99</f>
         <v>Thuế và các khoản phải nộp Nhà nước</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3207,18 +2906,15 @@
       <c r="C100" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1" t="str">
+      <c r="D100" s="1" t="str">
         <f>C100</f>
         <v>Thuế giá trị gia tăng phải nộp</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3228,18 +2924,15 @@
       <c r="C101" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="str">
+      <c r="D101" s="1" t="str">
         <f>C101</f>
         <v>Thuế GTGT đầu ra</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3249,18 +2942,15 @@
       <c r="C102" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="1">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="str">
+      <c r="D102" s="1" t="str">
         <f>C102</f>
         <v>Thuế GTGT hàng nhập khẩu</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3270,18 +2960,15 @@
       <c r="C103" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="1">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="str">
+      <c r="D103" s="1" t="str">
         <f>C103</f>
         <v>Thuế tiêu thụ đặc biệt</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3291,18 +2978,15 @@
       <c r="C104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="1">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="str">
+      <c r="D104" s="1" t="str">
         <f>C104</f>
         <v>Thuế xuất, nhập khẩu</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3312,18 +2996,15 @@
       <c r="C105" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D105" s="1">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="str">
+      <c r="D105" s="1" t="str">
         <f>C105</f>
         <v>Thuế thu nhập doanh nghiệp</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3333,18 +3014,15 @@
       <c r="C106" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="1">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="str">
+      <c r="D106" s="1" t="str">
         <f>C106</f>
         <v>Thuế thu nhập cá nhân</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3354,18 +3032,15 @@
       <c r="C107" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="str">
+      <c r="D107" s="1" t="str">
         <f>C107</f>
         <v>Thuế tài nguyên</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3375,18 +3050,15 @@
       <c r="C108" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="1">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="str">
+      <c r="D108" s="1" t="str">
         <f>C108</f>
         <v>Thuế nhà đất, tiền thuê đất</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3396,18 +3068,15 @@
       <c r="C109" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="1">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="str">
+      <c r="D109" s="1" t="str">
         <f>C109</f>
         <v>Thuế bảo vệ môi trường và các loại thuế khác</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3417,18 +3086,15 @@
       <c r="C110" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="1">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="str">
+      <c r="D110" s="1" t="str">
         <f>C110</f>
         <v>Thuế bảo vệ môi trường</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3438,18 +3104,15 @@
       <c r="C111" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="str">
+      <c r="D111" s="1" t="str">
         <f>C111</f>
         <v>Các loại thuế khác</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3459,18 +3122,15 @@
       <c r="C112" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="str">
+      <c r="D112" s="1" t="str">
         <f>C112</f>
         <v>Phí, lệ phí và các khoản phải nộp khác</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3480,18 +3140,15 @@
       <c r="C113" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="str">
+      <c r="D113" s="1" t="str">
         <f>C113</f>
         <v>Phải trả người lao động</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3501,18 +3158,15 @@
       <c r="C114" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="1">
-        <v>1</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-      <c r="F114" s="1" t="str">
+      <c r="D114" s="1" t="str">
         <f>C114</f>
         <v>Phải trả công nhân viên</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3522,18 +3176,15 @@
       <c r="C115" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D115" s="1">
-        <v>1</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="str">
+      <c r="D115" s="1" t="str">
         <f>C115</f>
         <v>Phải trả người lao động khác</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3543,18 +3194,15 @@
       <c r="C116" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1">
-        <v>1</v>
-      </c>
-      <c r="F116" s="1" t="str">
+      <c r="D116" s="1" t="str">
         <f>C116</f>
         <v>Chi phí phải trả</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3564,18 +3212,15 @@
       <c r="C117" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D117" s="1">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1">
-        <v>1</v>
-      </c>
-      <c r="F117" s="1" t="str">
+      <c r="D117" s="1" t="str">
         <f>C117</f>
         <v>Phải trả nội bộ</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3585,18 +3230,15 @@
       <c r="C118" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="1">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1">
-        <v>1</v>
-      </c>
-      <c r="F118" s="1" t="str">
+      <c r="D118" s="1" t="str">
         <f>C118</f>
         <v>Phải trả nội bộ về vốn kinh doanh</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3606,18 +3248,15 @@
       <c r="C119" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="1">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1" t="str">
+      <c r="D119" s="1" t="str">
         <f>C119</f>
         <v>Phải trả nội bộ về chênh lệch tỷ giá</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3627,18 +3266,15 @@
       <c r="C120" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1</v>
-      </c>
-      <c r="F120" s="1" t="str">
+      <c r="D120" s="1" t="str">
         <f>C120</f>
         <v>Phải trả nội bộ về chi phí đi vay đủ điều kiện được vốn hoá</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3648,18 +3284,15 @@
       <c r="C121" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D121" s="1">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-      <c r="F121" s="1" t="str">
+      <c r="D121" s="1" t="str">
         <f>C121</f>
         <v>Phải trả nội bộ khác</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3669,18 +3302,15 @@
       <c r="C122" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1</v>
-      </c>
-      <c r="F122" s="1" t="str">
+      <c r="D122" s="1" t="str">
         <f>C122</f>
         <v>Thanh toán theo tiến độ kế hoạch hợp đồng xây dựng</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3690,18 +3320,15 @@
       <c r="C123" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
-      </c>
-      <c r="F123" s="1" t="str">
+      <c r="D123" s="1" t="str">
         <f>C123</f>
         <v>Phải trả, phải nộp khác</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3711,18 +3338,15 @@
       <c r="C124" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1" t="str">
+      <c r="D124" s="1" t="str">
         <f>C124</f>
         <v>Tài sản thừa chờ giải quyết</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3732,18 +3356,15 @@
       <c r="C125" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1">
-        <v>1</v>
-      </c>
-      <c r="F125" s="1" t="str">
+      <c r="D125" s="1" t="str">
         <f>C125</f>
         <v>Kinh phí công đoàn</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3753,18 +3374,15 @@
       <c r="C126" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="str">
+      <c r="D126" s="1" t="str">
         <f>C126</f>
         <v>Bảo hiểm xã hội</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3774,18 +3392,15 @@
       <c r="C127" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="1">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="str">
+      <c r="D127" s="1" t="str">
         <f>C127</f>
         <v>Bảo hiểm y tế</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3795,18 +3410,15 @@
       <c r="C128" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="1">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1" t="str">
+      <c r="D128" s="1" t="str">
         <f>C128</f>
         <v>Phải trả về cổ phần hoá</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3816,18 +3428,15 @@
       <c r="C129" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="1">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1</v>
-      </c>
-      <c r="F129" s="1" t="str">
+      <c r="D129" s="1" t="str">
         <f>C129</f>
         <v>Bảo hiểm thất nghiệp</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3837,18 +3446,15 @@
       <c r="C130" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-      <c r="F130" s="1" t="str">
+      <c r="D130" s="1" t="str">
         <f>C130</f>
         <v>Doanh thu chưa thực hiện</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3858,18 +3464,15 @@
       <c r="C131" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="1">
-        <v>1</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-      <c r="F131" s="1" t="str">
+      <c r="D131" s="1" t="str">
         <f>C131</f>
         <v>Phải trả, phải nộp khác</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3879,18 +3482,15 @@
       <c r="C132" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="1" t="str">
+      <c r="D132" s="1" t="str">
         <f>C132</f>
         <v>Vay và nợ thuê tài chính</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3900,18 +3500,15 @@
       <c r="C133" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D133" s="1">
-        <v>1</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1" t="str">
+      <c r="D133" s="1" t="str">
         <f>C133</f>
         <v>Các khoản đi vay</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3921,18 +3518,15 @@
       <c r="C134" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="1">
-        <v>1</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="1" t="str">
+      <c r="D134" s="1" t="str">
         <f>C134</f>
         <v>Nợ thuê tài chính</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3942,18 +3536,15 @@
       <c r="C135" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D135" s="1">
-        <v>1</v>
-      </c>
-      <c r="E135" s="1">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1" t="str">
+      <c r="D135" s="1" t="str">
         <f>C135</f>
         <v>Trái phiếu phát hành</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3963,18 +3554,15 @@
       <c r="C136" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D136" s="1">
-        <v>1</v>
-      </c>
-      <c r="E136" s="1">
-        <v>1</v>
-      </c>
-      <c r="F136" s="1" t="str">
+      <c r="D136" s="1" t="str">
         <f>C136</f>
         <v>Trái phiếu thường</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3984,18 +3572,15 @@
       <c r="C137" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D137" s="1">
-        <v>1</v>
-      </c>
-      <c r="E137" s="1">
-        <v>1</v>
-      </c>
-      <c r="F137" s="1" t="str">
+      <c r="D137" s="1" t="str">
         <f>C137</f>
         <v>Mệnh giá</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4005,18 +3590,15 @@
       <c r="C138" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D138" s="1">
-        <v>1</v>
-      </c>
-      <c r="E138" s="1">
-        <v>1</v>
-      </c>
-      <c r="F138" s="1" t="str">
+      <c r="D138" s="1" t="str">
         <f>C138</f>
         <v>Chiết khấu trái phiếu</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4026,18 +3608,15 @@
       <c r="C139" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D139" s="1">
-        <v>1</v>
-      </c>
-      <c r="E139" s="1">
-        <v>1</v>
-      </c>
-      <c r="F139" s="1" t="str">
+      <c r="D139" s="1" t="str">
         <f>C139</f>
         <v>Phụ trội trái phiếu</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4047,18 +3626,15 @@
       <c r="C140" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D140" s="1">
-        <v>1</v>
-      </c>
-      <c r="E140" s="1">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="str">
+      <c r="D140" s="1" t="str">
         <f>C140</f>
         <v>Trái phiếu chuyển đổi</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4068,18 +3644,15 @@
       <c r="C141" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D141" s="1">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1">
-        <v>1</v>
-      </c>
-      <c r="F141" s="1" t="str">
+      <c r="D141" s="1" t="str">
         <f>C141</f>
         <v>Nhận ký quỹ, ký cược</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4089,18 +3662,15 @@
       <c r="C142" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D142" s="1">
-        <v>1</v>
-      </c>
-      <c r="E142" s="1">
-        <v>1</v>
-      </c>
-      <c r="F142" s="1" t="str">
+      <c r="D142" s="1" t="str">
         <f>C142</f>
         <v>Thuế thu nhập hoãn lại phải trả</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4110,18 +3680,15 @@
       <c r="C143" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D143" s="1">
-        <v>1</v>
-      </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="1" t="str">
+      <c r="D143" s="1" t="str">
         <f>C143</f>
         <v>Dự phòng phải trả</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4131,18 +3698,15 @@
       <c r="C144" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D144" s="1">
-        <v>1</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
-      </c>
-      <c r="F144" s="1" t="str">
+      <c r="D144" s="1" t="str">
         <f>C144</f>
         <v>Dự phòng bảo hành sản phẩm hàng hóa</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4152,18 +3716,15 @@
       <c r="C145" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D145" s="1">
-        <v>1</v>
-      </c>
-      <c r="E145" s="1">
-        <v>1</v>
-      </c>
-      <c r="F145" s="1" t="str">
+      <c r="D145" s="1" t="str">
         <f>C145</f>
         <v>Dự phòng bảo hành công trình xây dựng</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4173,18 +3734,15 @@
       <c r="C146" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D146" s="1">
-        <v>1</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="1" t="str">
+      <c r="D146" s="1" t="str">
         <f>C146</f>
         <v>Dự phòng tái cơ cấu doanh nghiệp</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4194,18 +3752,15 @@
       <c r="C147" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D147" s="1">
-        <v>1</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="1" t="str">
+      <c r="D147" s="1" t="str">
         <f>C147</f>
         <v>Dự phòng phải trả khác</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4215,18 +3770,15 @@
       <c r="C148" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D148" s="1">
-        <v>1</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="F148" s="1" t="str">
+      <c r="D148" s="1" t="str">
         <f>C148</f>
         <v>Quỹ khen thưởng phúc lợi</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4236,18 +3788,15 @@
       <c r="C149" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D149" s="1">
-        <v>1</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1</v>
-      </c>
-      <c r="F149" s="1" t="str">
+      <c r="D149" s="1" t="str">
         <f>C149</f>
         <v>Quỹ khen thưởng</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4257,18 +3806,15 @@
       <c r="C150" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="1">
-        <v>1</v>
-      </c>
-      <c r="E150" s="1">
-        <v>1</v>
-      </c>
-      <c r="F150" s="1" t="str">
+      <c r="D150" s="1" t="str">
         <f>C150</f>
         <v>Quỹ phúc lợi</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4278,18 +3824,15 @@
       <c r="C151" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D151" s="1">
-        <v>1</v>
-      </c>
-      <c r="E151" s="1">
-        <v>1</v>
-      </c>
-      <c r="F151" s="1" t="str">
+      <c r="D151" s="1" t="str">
         <f>C151</f>
         <v>Quỹ phúc lợi đã hình thành TSCĐ</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4299,18 +3842,15 @@
       <c r="C152" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D152" s="1">
-        <v>1</v>
-      </c>
-      <c r="E152" s="1">
-        <v>1</v>
-      </c>
-      <c r="F152" s="1" t="str">
+      <c r="D152" s="1" t="str">
         <f>C152</f>
         <v>Quỹ thưởng ban quản lý điều hành công ty</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4320,18 +3860,15 @@
       <c r="C153" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D153" s="1">
-        <v>1</v>
-      </c>
-      <c r="E153" s="1">
-        <v>1</v>
-      </c>
-      <c r="F153" s="1" t="str">
+      <c r="D153" s="1" t="str">
         <f>C153</f>
         <v>Quỹ phát triển khoa học và công nghệ</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4341,18 +3878,15 @@
       <c r="C154" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D154" s="1">
-        <v>1</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1</v>
-      </c>
-      <c r="F154" s="1" t="str">
+      <c r="D154" s="1" t="str">
         <f>C154</f>
         <v>Quỹ phát triển khoa học và công nghệ</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4362,18 +3896,15 @@
       <c r="C155" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1</v>
-      </c>
-      <c r="F155" s="1" t="str">
+      <c r="D155" s="1" t="str">
         <f>C155</f>
         <v>Quỹ phát triển khoa học và công nghệ đã hình thành TSCĐ</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4383,18 +3914,15 @@
       <c r="C156" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="1" t="str">
+      <c r="D156" s="1" t="str">
         <f>C156</f>
         <v>Quỹ bình ổn giá</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4404,18 +3932,15 @@
       <c r="C157" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1">
-        <v>1</v>
-      </c>
-      <c r="F157" s="1" t="str">
+      <c r="D157" s="1" t="str">
         <f>C157</f>
         <v>Vốn đầu tư của chủ sở hữu</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4425,18 +3950,15 @@
       <c r="C158" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D158" s="1">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1">
-        <v>1</v>
-      </c>
-      <c r="F158" s="1" t="str">
+      <c r="D158" s="1" t="str">
         <f>C158</f>
         <v>Vốn góp của chủ sở hữu</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4446,18 +3968,15 @@
       <c r="C159" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D159" s="1">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1">
-        <v>1</v>
-      </c>
-      <c r="F159" s="1" t="str">
+      <c r="D159" s="1" t="str">
         <f>C159</f>
         <v>Vốn góp Diệu</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4467,18 +3986,15 @@
       <c r="C160" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D160" s="1">
-        <v>1</v>
-      </c>
-      <c r="E160" s="1">
-        <v>1</v>
-      </c>
-      <c r="F160" s="1" t="str">
+      <c r="D160" s="1" t="str">
         <f>C160</f>
         <v>Vốn góp Hiểu</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4488,18 +4004,15 @@
       <c r="C161" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D161" s="1">
-        <v>1</v>
-      </c>
-      <c r="E161" s="1">
-        <v>1</v>
-      </c>
-      <c r="F161" s="1" t="str">
+      <c r="D161" s="1" t="str">
         <f>C161</f>
         <v>Cổ phiếu phổ thông có quyền biểu quyết</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4509,18 +4022,15 @@
       <c r="C162" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D162" s="1">
-        <v>1</v>
-      </c>
-      <c r="E162" s="1">
-        <v>1</v>
-      </c>
-      <c r="F162" s="1" t="str">
+      <c r="D162" s="1" t="str">
         <f>C162</f>
         <v>Cổ phiếu ưu đãi</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4530,18 +4040,15 @@
       <c r="C163" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D163" s="1">
-        <v>1</v>
-      </c>
-      <c r="E163" s="1">
-        <v>1</v>
-      </c>
-      <c r="F163" s="1" t="str">
+      <c r="D163" s="1" t="str">
         <f>C163</f>
         <v>Thặng dư vốn cổ phần</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4551,18 +4058,15 @@
       <c r="C164" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D164" s="1">
-        <v>1</v>
-      </c>
-      <c r="E164" s="1">
-        <v>1</v>
-      </c>
-      <c r="F164" s="1" t="str">
+      <c r="D164" s="1" t="str">
         <f>C164</f>
         <v>Quyền chọn chuyển đổi trái phiếu</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4572,18 +4076,15 @@
       <c r="C165" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D165" s="1">
-        <v>1</v>
-      </c>
-      <c r="E165" s="1">
-        <v>1</v>
-      </c>
-      <c r="F165" s="1" t="str">
+      <c r="D165" s="1" t="str">
         <f>C165</f>
         <v>Vốn khác</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4593,18 +4094,15 @@
       <c r="C166" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D166" s="1">
-        <v>1</v>
-      </c>
-      <c r="E166" s="1">
-        <v>1</v>
-      </c>
-      <c r="F166" s="1" t="str">
+      <c r="D166" s="1" t="str">
         <f>C166</f>
         <v>Chênh lệch đánh giá lại tài sản</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4614,18 +4112,15 @@
       <c r="C167" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D167" s="1">
-        <v>1</v>
-      </c>
-      <c r="E167" s="1">
-        <v>1</v>
-      </c>
-      <c r="F167" s="1" t="str">
+      <c r="D167" s="1" t="str">
         <f>C167</f>
         <v>Chênh lệch tỷ giá hối đoái</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4635,18 +4130,15 @@
       <c r="C168" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D168" s="1">
-        <v>1</v>
-      </c>
-      <c r="E168" s="1">
-        <v>1</v>
-      </c>
-      <c r="F168" s="1" t="str">
+      <c r="D168" s="1" t="str">
         <f>C168</f>
         <v>Chênh lệch tỷ giá do đánh giá lại các khoản mục tiền tệ có gốc ngoại tệ</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4656,18 +4148,15 @@
       <c r="C169" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D169" s="1">
-        <v>1</v>
-      </c>
-      <c r="E169" s="1">
-        <v>1</v>
-      </c>
-      <c r="F169" s="1" t="str">
+      <c r="D169" s="1" t="str">
         <f>C169</f>
         <v>Chênh lệch tỷ giá hối đoái trong giai đoạn trước hoạt động</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4677,18 +4166,15 @@
       <c r="C170" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D170" s="1">
-        <v>1</v>
-      </c>
-      <c r="E170" s="1">
-        <v>1</v>
-      </c>
-      <c r="F170" s="1" t="str">
+      <c r="D170" s="1" t="str">
         <f>C170</f>
         <v>Quỹ đầu tư phát triển</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4698,18 +4184,15 @@
       <c r="C171" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D171" s="1">
-        <v>1</v>
-      </c>
-      <c r="E171" s="1">
-        <v>1</v>
-      </c>
-      <c r="F171" s="1" t="str">
+      <c r="D171" s="1" t="str">
         <f>C171</f>
         <v>Quỹ hỗ trợ sắp xếp doanh nghiệp</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4719,18 +4202,15 @@
       <c r="C172" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D172" s="1">
-        <v>1</v>
-      </c>
-      <c r="E172" s="1">
-        <v>1</v>
-      </c>
-      <c r="F172" s="1" t="str">
+      <c r="D172" s="1" t="str">
         <f>C172</f>
         <v>Các quỹ khác thuộc vốn chủ sở hữu</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4740,18 +4220,15 @@
       <c r="C173" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D173" s="1">
-        <v>1</v>
-      </c>
-      <c r="E173" s="1">
-        <v>1</v>
-      </c>
-      <c r="F173" s="1" t="str">
+      <c r="D173" s="1" t="str">
         <f>C173</f>
         <v>Cổ phiếu quỹ</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4761,18 +4238,15 @@
       <c r="C174" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D174" s="1">
-        <v>1</v>
-      </c>
-      <c r="E174" s="1">
-        <v>1</v>
-      </c>
-      <c r="F174" s="1" t="str">
+      <c r="D174" s="1" t="str">
         <f>C174</f>
         <v>Lợi nhuận sau thuế chưa phân phối</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4782,18 +4256,15 @@
       <c r="C175" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D175" s="1">
-        <v>1</v>
-      </c>
-      <c r="E175" s="1">
-        <v>1</v>
-      </c>
-      <c r="F175" s="1" t="str">
+      <c r="D175" s="1" t="str">
         <f>C175</f>
         <v>Lợi nhuận sau thuế chưa phân phối năm trước</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4803,18 +4274,15 @@
       <c r="C176" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D176" s="1">
-        <v>1</v>
-      </c>
-      <c r="E176" s="1">
-        <v>1</v>
-      </c>
-      <c r="F176" s="1" t="str">
+      <c r="D176" s="1" t="str">
         <f>C176</f>
         <v>Lợi nhuận sau thuế chưa phân phối năm nay</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4824,18 +4292,15 @@
       <c r="C177" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D177" s="1">
-        <v>1</v>
-      </c>
-      <c r="E177" s="1">
-        <v>1</v>
-      </c>
-      <c r="F177" s="1" t="str">
+      <c r="D177" s="1" t="str">
         <f>C177</f>
         <v>Nguồn vốn đầu tư xây dựng cơ bản</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4845,18 +4310,15 @@
       <c r="C178" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D178" s="1">
-        <v>1</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1</v>
-      </c>
-      <c r="F178" s="1" t="str">
+      <c r="D178" s="1" t="str">
         <f>C178</f>
         <v>Nguồn kinh phí sự nghiệp</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4866,18 +4328,15 @@
       <c r="C179" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D179" s="1">
-        <v>1</v>
-      </c>
-      <c r="E179" s="1">
-        <v>1</v>
-      </c>
-      <c r="F179" s="1" t="str">
+      <c r="D179" s="1" t="str">
         <f>C179</f>
         <v>Nguồn kinh phí sự nghiệp năm trước</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4887,18 +4346,15 @@
       <c r="C180" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="1">
-        <v>1</v>
-      </c>
-      <c r="E180" s="1">
-        <v>1</v>
-      </c>
-      <c r="F180" s="1" t="str">
+      <c r="D180" s="1" t="str">
         <f>C180</f>
         <v>Nguồn kinh phí sự nghiệp năm nay</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4908,18 +4364,15 @@
       <c r="C181" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D181" s="1">
-        <v>1</v>
-      </c>
-      <c r="E181" s="1">
-        <v>1</v>
-      </c>
-      <c r="F181" s="1" t="str">
+      <c r="D181" s="1" t="str">
         <f>C181</f>
         <v>Nguồn kinh phí đã hình thành TSCĐ</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4929,18 +4382,15 @@
       <c r="C182" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D182" s="1">
-        <v>1</v>
-      </c>
-      <c r="E182" s="1">
-        <v>1</v>
-      </c>
-      <c r="F182" s="1" t="str">
+      <c r="D182" s="1" t="str">
         <f>C182</f>
         <v>Doanh thu bán hàng và cung cấp dịch vụ</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4950,18 +4400,15 @@
       <c r="C183" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D183" s="1">
-        <v>1</v>
-      </c>
-      <c r="E183" s="1">
-        <v>1</v>
-      </c>
-      <c r="F183" s="1" t="str">
+      <c r="D183" s="1" t="str">
         <f>C183</f>
         <v>Doanh thu bán hàng hóa</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4971,18 +4418,15 @@
       <c r="C184" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D184" s="1">
-        <v>1</v>
-      </c>
-      <c r="E184" s="1">
-        <v>1</v>
-      </c>
-      <c r="F184" s="1" t="str">
+      <c r="D184" s="1" t="str">
         <f>C184</f>
         <v>Doanh thu bán các thành phẩm</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4992,18 +4436,15 @@
       <c r="C185" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D185" s="1">
-        <v>1</v>
-      </c>
-      <c r="E185" s="1">
-        <v>1</v>
-      </c>
-      <c r="F185" s="1" t="str">
+      <c r="D185" s="1" t="str">
         <f>C185</f>
         <v>Doanh thu cung cấp dịch vụ</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -5013,18 +4454,15 @@
       <c r="C186" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D186" s="1">
-        <v>1</v>
-      </c>
-      <c r="E186" s="1">
-        <v>1</v>
-      </c>
-      <c r="F186" s="1" t="str">
+      <c r="D186" s="1" t="str">
         <f>C186</f>
         <v>Doanh thu trợ cấp, trợ giá</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -5034,18 +4472,15 @@
       <c r="C187" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D187" s="1">
-        <v>1</v>
-      </c>
-      <c r="E187" s="1">
-        <v>1</v>
-      </c>
-      <c r="F187" s="1" t="str">
+      <c r="D187" s="1" t="str">
         <f>C187</f>
         <v>Doanh thu kinh doanh bất động sản đầu tư</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5055,18 +4490,15 @@
       <c r="C188" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D188" s="1">
-        <v>1</v>
-      </c>
-      <c r="E188" s="1">
-        <v>1</v>
-      </c>
-      <c r="F188" s="1" t="str">
+      <c r="D188" s="1" t="str">
         <f>C188</f>
         <v>Doanh thu khác</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5076,18 +4508,15 @@
       <c r="C189" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D189" s="1">
-        <v>1</v>
-      </c>
-      <c r="E189" s="1">
-        <v>1</v>
-      </c>
-      <c r="F189" s="1" t="str">
+      <c r="D189" s="1" t="str">
         <f>C189</f>
         <v>Doanh thu hoạt động tài chính</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5097,18 +4526,15 @@
       <c r="C190" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D190" s="1">
-        <v>1</v>
-      </c>
-      <c r="E190" s="1">
-        <v>1</v>
-      </c>
-      <c r="F190" s="1" t="str">
+      <c r="D190" s="1" t="str">
         <f>C190</f>
         <v>Các khoản giảm trừ doanh thu</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5118,18 +4544,15 @@
       <c r="C191" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D191" s="1">
-        <v>1</v>
-      </c>
-      <c r="E191" s="1">
-        <v>1</v>
-      </c>
-      <c r="F191" s="1" t="str">
+      <c r="D191" s="1" t="str">
         <f>C191</f>
         <v>Chiết khấu thương mại</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5139,18 +4562,15 @@
       <c r="C192" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D192" s="1">
-        <v>1</v>
-      </c>
-      <c r="E192" s="1">
-        <v>1</v>
-      </c>
-      <c r="F192" s="1" t="str">
+      <c r="D192" s="1" t="str">
         <f>C192</f>
         <v>Hàng bán bị trả lại</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5160,18 +4580,15 @@
       <c r="C193" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D193" s="1">
-        <v>1</v>
-      </c>
-      <c r="E193" s="1">
-        <v>1</v>
-      </c>
-      <c r="F193" s="1" t="str">
+      <c r="D193" s="1" t="str">
         <f>C193</f>
         <v>Giảm giá hàng bán</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5181,18 +4598,15 @@
       <c r="C194" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D194" s="1">
-        <v>1</v>
-      </c>
-      <c r="E194" s="1">
-        <v>1</v>
-      </c>
-      <c r="F194" s="1" t="str">
+      <c r="D194" s="1" t="str">
         <f>C194</f>
         <v>Mua hàng</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5202,18 +4616,15 @@
       <c r="C195" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D195" s="1">
-        <v>1</v>
-      </c>
-      <c r="E195" s="1">
-        <v>1</v>
-      </c>
-      <c r="F195" s="1" t="str">
+      <c r="D195" s="1" t="str">
         <f>C195</f>
         <v>Mua nguyên liệu, vật liệu</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5223,18 +4634,15 @@
       <c r="C196" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D196" s="1">
-        <v>1</v>
-      </c>
-      <c r="E196" s="1">
-        <v>1</v>
-      </c>
-      <c r="F196" s="1" t="str">
+      <c r="D196" s="1" t="str">
         <f>C196</f>
         <v>Mua hàng hóa</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5244,18 +4652,15 @@
       <c r="C197" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D197" s="1">
-        <v>1</v>
-      </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-      <c r="F197" s="1" t="str">
+      <c r="D197" s="1" t="str">
         <f>C197</f>
         <v>Chi phí nguyên liệu, vật liệu trực tiếp</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5265,18 +4670,15 @@
       <c r="C198" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D198" s="1">
-        <v>1</v>
-      </c>
-      <c r="E198" s="1">
-        <v>1</v>
-      </c>
-      <c r="F198" s="1" t="str">
+      <c r="D198" s="1" t="str">
         <f>C198</f>
         <v>Chi phí nhân công trực tiếp</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5286,18 +4688,15 @@
       <c r="C199" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D199" s="1">
-        <v>1</v>
-      </c>
-      <c r="E199" s="1">
-        <v>1</v>
-      </c>
-      <c r="F199" s="1" t="str">
+      <c r="D199" s="1" t="str">
         <f>C199</f>
         <v>Chi phí sử dụng máy thi công</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5307,18 +4706,15 @@
       <c r="C200" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D200" s="1">
-        <v>1</v>
-      </c>
-      <c r="E200" s="1">
-        <v>1</v>
-      </c>
-      <c r="F200" s="1" t="str">
+      <c r="D200" s="1" t="str">
         <f>C200</f>
         <v>Chi phí nhân công</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5328,18 +4724,15 @@
       <c r="C201" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D201" s="1">
-        <v>1</v>
-      </c>
-      <c r="E201" s="1">
-        <v>1</v>
-      </c>
-      <c r="F201" s="1" t="str">
+      <c r="D201" s="1" t="str">
         <f>C201</f>
         <v>Chi phí nguyên, vật liệu</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5349,18 +4742,15 @@
       <c r="C202" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D202" s="1">
-        <v>1</v>
-      </c>
-      <c r="E202" s="1">
-        <v>1</v>
-      </c>
-      <c r="F202" s="1" t="str">
+      <c r="D202" s="1" t="str">
         <f>C202</f>
         <v>Chi phí dụng cụ sản xuất</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5370,18 +4760,15 @@
       <c r="C203" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D203" s="1">
-        <v>1</v>
-      </c>
-      <c r="E203" s="1">
-        <v>1</v>
-      </c>
-      <c r="F203" s="1" t="str">
+      <c r="D203" s="1" t="str">
         <f>C203</f>
         <v>Chi phí khấu hao máy thi công</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5391,18 +4778,15 @@
       <c r="C204" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D204" s="1">
-        <v>1</v>
-      </c>
-      <c r="E204" s="1">
-        <v>1</v>
-      </c>
-      <c r="F204" s="1" t="str">
+      <c r="D204" s="1" t="str">
         <f>C204</f>
         <v>Chi phí dịch vụ mua ngoài</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5412,18 +4796,15 @@
       <c r="C205" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D205" s="1">
-        <v>1</v>
-      </c>
-      <c r="E205" s="1">
-        <v>1</v>
-      </c>
-      <c r="F205" s="1" t="str">
+      <c r="D205" s="1" t="str">
         <f>C205</f>
         <v>Chi phí bằng tiền khác</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5433,18 +4814,15 @@
       <c r="C206" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D206" s="1">
-        <v>1</v>
-      </c>
-      <c r="E206" s="1">
-        <v>1</v>
-      </c>
-      <c r="F206" s="1" t="str">
+      <c r="D206" s="1" t="str">
         <f>C206</f>
         <v>Chi phí sản xuất chung</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5454,18 +4832,15 @@
       <c r="C207" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
-      </c>
-      <c r="E207" s="1">
-        <v>1</v>
-      </c>
-      <c r="F207" s="1" t="str">
+      <c r="D207" s="1" t="str">
         <f>C207</f>
         <v>Chi phí nhân viên phân xưởng</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5475,18 +4850,15 @@
       <c r="C208" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D208" s="1">
-        <v>1</v>
-      </c>
-      <c r="E208" s="1">
-        <v>1</v>
-      </c>
-      <c r="F208" s="1" t="str">
+      <c r="D208" s="1" t="str">
         <f>C208</f>
         <v>Chi phí nguyên, vật liệu</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5496,18 +4868,15 @@
       <c r="C209" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D209" s="1">
-        <v>1</v>
-      </c>
-      <c r="E209" s="1">
-        <v>1</v>
-      </c>
-      <c r="F209" s="1" t="str">
+      <c r="D209" s="1" t="str">
         <f>C209</f>
         <v>Chi phí dụng cụ sản xuất</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5517,18 +4886,15 @@
       <c r="C210" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D210" s="1">
-        <v>1</v>
-      </c>
-      <c r="E210" s="1">
-        <v>1</v>
-      </c>
-      <c r="F210" s="1" t="str">
+      <c r="D210" s="1" t="str">
         <f>C210</f>
         <v>Chi phí khấu hao TSCĐ</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5538,18 +4904,15 @@
       <c r="C211" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D211" s="1">
-        <v>1</v>
-      </c>
-      <c r="E211" s="1">
-        <v>1</v>
-      </c>
-      <c r="F211" s="1" t="str">
+      <c r="D211" s="1" t="str">
         <f>C211</f>
         <v>Chi phí dịch vụ mua ngoài</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5559,18 +4922,15 @@
       <c r="C212" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D212" s="1">
-        <v>1</v>
-      </c>
-      <c r="E212" s="1">
-        <v>1</v>
-      </c>
-      <c r="F212" s="1" t="str">
+      <c r="D212" s="1" t="str">
         <f>C212</f>
         <v>Chi phí bằng tiền khác</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5580,18 +4940,15 @@
       <c r="C213" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
-      </c>
-      <c r="E213" s="1">
-        <v>1</v>
-      </c>
-      <c r="F213" s="1" t="str">
+      <c r="D213" s="1" t="str">
         <f>C213</f>
         <v>Giá thành sản xuất</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5601,18 +4958,15 @@
       <c r="C214" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D214" s="1">
-        <v>1</v>
-      </c>
-      <c r="E214" s="1">
-        <v>1</v>
-      </c>
-      <c r="F214" s="1" t="str">
+      <c r="D214" s="1" t="str">
         <f>C214</f>
         <v>Giá vốn hàng bán</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5622,18 +4976,15 @@
       <c r="C215" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D215" s="1">
-        <v>1</v>
-      </c>
-      <c r="E215" s="1">
-        <v>1</v>
-      </c>
-      <c r="F215" s="1" t="str">
+      <c r="D215" s="1" t="str">
         <f>C215</f>
         <v>Chi phí tài chính</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5643,18 +4994,15 @@
       <c r="C216" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D216" s="1">
-        <v>1</v>
-      </c>
-      <c r="E216" s="1">
-        <v>1</v>
-      </c>
-      <c r="F216" s="1" t="str">
+      <c r="D216" s="1" t="str">
         <f>C216</f>
         <v>Chi phí bán hàng</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5664,18 +5012,15 @@
       <c r="C217" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D217" s="1">
-        <v>1</v>
-      </c>
-      <c r="E217" s="1">
-        <v>1</v>
-      </c>
-      <c r="F217" s="1" t="str">
+      <c r="D217" s="1" t="str">
         <f>C217</f>
         <v>Chi phí nhân viên</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5685,18 +5030,15 @@
       <c r="C218" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D218" s="1">
-        <v>1</v>
-      </c>
-      <c r="E218" s="1">
-        <v>1</v>
-      </c>
-      <c r="F218" s="1" t="str">
+      <c r="D218" s="1" t="str">
         <f>C218</f>
         <v>Chi phí nguyên vật liệu, bao bì</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5706,18 +5048,15 @@
       <c r="C219" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D219" s="1">
-        <v>1</v>
-      </c>
-      <c r="E219" s="1">
-        <v>1</v>
-      </c>
-      <c r="F219" s="1" t="str">
+      <c r="D219" s="1" t="str">
         <f>C219</f>
         <v>Chi phí dụng cụ, đồ dùng</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5727,18 +5066,15 @@
       <c r="C220" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D220" s="1">
-        <v>1</v>
-      </c>
-      <c r="E220" s="1">
-        <v>1</v>
-      </c>
-      <c r="F220" s="1" t="str">
+      <c r="D220" s="1" t="str">
         <f>C220</f>
         <v>Chi phí khấu hao TSCĐ</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5748,18 +5084,15 @@
       <c r="C221" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D221" s="1">
-        <v>1</v>
-      </c>
-      <c r="E221" s="1">
-        <v>1</v>
-      </c>
-      <c r="F221" s="1" t="str">
+      <c r="D221" s="1" t="str">
         <f>C221</f>
         <v>Chi phí bảo hành</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5769,18 +5102,15 @@
       <c r="C222" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D222" s="1">
-        <v>1</v>
-      </c>
-      <c r="E222" s="1">
-        <v>1</v>
-      </c>
-      <c r="F222" s="1" t="str">
+      <c r="D222" s="1" t="str">
         <f>C222</f>
         <v>Chi phí dịch vụ mua ngoài</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5790,18 +5120,15 @@
       <c r="C223" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D223" s="1">
-        <v>1</v>
-      </c>
-      <c r="E223" s="1">
-        <v>1</v>
-      </c>
-      <c r="F223" s="1" t="str">
+      <c r="D223" s="1" t="str">
         <f>C223</f>
         <v>Chi phí bằng tiền khác</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5811,18 +5138,15 @@
       <c r="C224" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D224" s="1">
-        <v>1</v>
-      </c>
-      <c r="E224" s="1">
-        <v>1</v>
-      </c>
-      <c r="F224" s="1" t="str">
+      <c r="D224" s="1" t="str">
         <f>C224</f>
         <v>Chi phí quản lý doanh nghiệp</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5832,18 +5156,15 @@
       <c r="C225" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D225" s="1">
-        <v>1</v>
-      </c>
-      <c r="E225" s="1">
-        <v>1</v>
-      </c>
-      <c r="F225" s="1" t="str">
+      <c r="D225" s="1" t="str">
         <f>C225</f>
         <v>Chi phí nhân viên quản lý</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5853,18 +5174,15 @@
       <c r="C226" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D226" s="1">
-        <v>1</v>
-      </c>
-      <c r="E226" s="1">
-        <v>1</v>
-      </c>
-      <c r="F226" s="1" t="str">
+      <c r="D226" s="1" t="str">
         <f>C226</f>
         <v>Chi phí vật liệu quản lý</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5874,18 +5192,15 @@
       <c r="C227" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D227" s="1">
-        <v>1</v>
-      </c>
-      <c r="E227" s="1">
-        <v>1</v>
-      </c>
-      <c r="F227" s="1" t="str">
+      <c r="D227" s="1" t="str">
         <f>C227</f>
         <v>Chi phí đồ dùng văn phòng</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5895,18 +5210,15 @@
       <c r="C228" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D228" s="1">
-        <v>1</v>
-      </c>
-      <c r="E228" s="1">
-        <v>1</v>
-      </c>
-      <c r="F228" s="1" t="str">
+      <c r="D228" s="1" t="str">
         <f>C228</f>
         <v>Chi phí khấu hao TSCĐ</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5916,18 +5228,15 @@
       <c r="C229" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D229" s="1">
-        <v>1</v>
-      </c>
-      <c r="E229" s="1">
-        <v>1</v>
-      </c>
-      <c r="F229" s="1" t="str">
+      <c r="D229" s="1" t="str">
         <f>C229</f>
         <v>Thuế, phí và lệ phí</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5937,18 +5246,15 @@
       <c r="C230" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D230" s="1">
-        <v>1</v>
-      </c>
-      <c r="E230" s="1">
-        <v>1</v>
-      </c>
-      <c r="F230" s="1" t="str">
+      <c r="D230" s="1" t="str">
         <f>C230</f>
         <v>Chi phí dự phòng</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5958,18 +5264,15 @@
       <c r="C231" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D231" s="1">
-        <v>1</v>
-      </c>
-      <c r="E231" s="1">
-        <v>1</v>
-      </c>
-      <c r="F231" s="1" t="str">
+      <c r="D231" s="1" t="str">
         <f>C231</f>
         <v>Chi phí dịch vụ mua ngoài</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5979,18 +5282,15 @@
       <c r="C232" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D232" s="1">
-        <v>1</v>
-      </c>
-      <c r="E232" s="1">
-        <v>1</v>
-      </c>
-      <c r="F232" s="1" t="str">
+      <c r="D232" s="1" t="str">
         <f>C232</f>
         <v>Chi phí bằng tiền khác</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -6000,18 +5300,15 @@
       <c r="C233" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D233" s="1">
-        <v>1</v>
-      </c>
-      <c r="E233" s="1">
-        <v>1</v>
-      </c>
-      <c r="F233" s="1" t="str">
+      <c r="D233" s="1" t="str">
         <f>C233</f>
         <v>Thu nhập khác</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -6021,18 +5318,15 @@
       <c r="C234" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D234" s="1">
-        <v>1</v>
-      </c>
-      <c r="E234" s="1">
-        <v>1</v>
-      </c>
-      <c r="F234" s="1" t="str">
+      <c r="D234" s="1" t="str">
         <f>C234</f>
         <v>Chi phí khác</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -6042,18 +5336,15 @@
       <c r="C235" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D235" s="1">
-        <v>1</v>
-      </c>
-      <c r="E235" s="1">
-        <v>1</v>
-      </c>
-      <c r="F235" s="1" t="str">
+      <c r="D235" s="1" t="str">
         <f>C235</f>
         <v>Chi phí thuế thu nhập doanh nghiệp</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -6063,18 +5354,15 @@
       <c r="C236" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D236" s="1">
-        <v>1</v>
-      </c>
-      <c r="E236" s="1">
-        <v>1</v>
-      </c>
-      <c r="F236" s="1" t="str">
+      <c r="D236" s="1" t="str">
         <f>C236</f>
         <v>Chi phí thuế TNDN hiện hành</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -6084,18 +5372,15 @@
       <c r="C237" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D237" s="1">
-        <v>1</v>
-      </c>
-      <c r="E237" s="1">
-        <v>1</v>
-      </c>
-      <c r="F237" s="1" t="str">
+      <c r="D237" s="1" t="str">
         <f>C237</f>
         <v>Chi phí thuế TNDN hoãn lại</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -6105,15 +5390,12 @@
       <c r="C238" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D238" s="1">
-        <v>1</v>
-      </c>
-      <c r="E238" s="1">
-        <v>1</v>
-      </c>
-      <c r="F238" s="1" t="str">
+      <c r="D238" s="1" t="str">
         <f>C238</f>
         <v>Xác định kết quả kinh doanh</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
